--- a/Client/配置表/excels/UnitExtraBase.xlsx
+++ b/Client/配置表/excels/UnitExtraBase.xlsx
@@ -1,57 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>id</t>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外技能</t>
   </si>
   <si>
     <t>skill</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillEx</t>
   </si>
   <si>
     <t>1001,1002,1003,1004,1005,1006,1007,1008,1009,1010</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1011</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -60,31 +61,363 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -92,12 +425,254 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -105,27 +680,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 3" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -414,16 +1036,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A3:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -446,74 +1068,83 @@
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="2:4">
       <c r="B6" s="3"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="4:4">
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="4:4">
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="4:4">
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="4:4">
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="4:5">
       <c r="D11" s="2"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="4:5">
       <c r="D12" s="2"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="4:7">
       <c r="D13" s="2"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="4:7">
       <c r="D14" s="2"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="4:7">
       <c r="D15" s="2"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="4:7">
       <c r="D16" s="2"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -615,118 +1246,118 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="4:10">
+    <row r="33" spans="4:7">
       <c r="D33" s="2"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="4:10">
+    <row r="34" spans="4:7">
       <c r="D34" s="2"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="4:10">
+    <row r="35" spans="4:7">
       <c r="D35" s="2"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="4:10">
+    <row r="36" spans="5:5">
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="4:10">
+    <row r="37" spans="5:5">
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="4:10">
+    <row r="38" spans="5:5">
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="4:10">
+    <row r="39" spans="5:5">
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="4:10" ht="17.25">
+    <row r="40" ht="17.25" spans="5:10">
       <c r="E40" s="4"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="4:10" ht="17.25">
+    <row r="41" ht="17.25" spans="5:10">
       <c r="E41" s="4"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="4:10" ht="17.25">
+    <row r="42" ht="17.25" spans="5:10">
       <c r="E42" s="4"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="4:10" ht="17.25">
+    <row r="43" ht="17.25" spans="5:10">
       <c r="E43" s="4"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="4:10" ht="17.25">
+    <row r="44" ht="17.25" spans="5:10">
       <c r="E44" s="4"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="4:10" ht="17.25">
+    <row r="45" ht="17.25" spans="5:10">
       <c r="E45" s="4"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="4:10" ht="17.25">
+    <row r="46" ht="17.25" spans="5:10">
       <c r="E46" s="4"/>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="4:10" ht="17.25">
+    <row r="47" ht="17.25" spans="5:10">
       <c r="E47" s="4"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="4:10">
+    <row r="48" spans="5:5">
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="5:10">
+    <row r="49" spans="5:5">
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="5:10">
+    <row r="50" spans="5:5">
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="5:10" ht="17.25">
+    <row r="51" ht="17.25" spans="5:10">
       <c r="E51" s="4"/>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="5:10">
+    <row r="52" spans="5:5">
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="5:10">
+    <row r="53" spans="5:5">
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="5:10">
+    <row r="54" spans="5:5">
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="5:10">
+    <row r="55" spans="5:5">
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="5:10">
+    <row r="56" spans="5:5">
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="5:10">
+    <row r="57" spans="5:5">
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="5:10">
+    <row r="58" spans="5:5">
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="5:10">
+    <row r="59" spans="5:5">
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="5:10">
+    <row r="60" spans="5:5">
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="5:10">
+    <row r="61" spans="5:5">
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="5:10">
+    <row r="62" spans="5:5">
       <c r="E62" s="4"/>
     </row>
-    <row r="63" spans="5:10">
+    <row r="63" spans="5:5">
       <c r="E63" s="4"/>
     </row>
-    <row r="64" spans="5:10">
+    <row r="64" spans="5:5">
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="5:5">
@@ -772,36 +1403,42 @@
       <c r="E78" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>